--- a/adjectives/Шаблоны ПРИЛАГАТЕЛЬНОЕ.xlsx
+++ b/adjectives/Шаблоны ПРИЛАГАТЕЛЬНОЕ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CF16D-CE3E-402C-9D3E-880542B56DCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0496D85C-E1E3-411C-85A4-BC378FEF950B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="250" windowWidth="18810" windowHeight="10600" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="0" windowWidth="18780" windowHeight="10600" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ШАБЛОНЫ полн. ф., прев. ст." sheetId="17" r:id="rId1"/>
@@ -1932,25 +1932,37 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,112 +1971,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2549,13 +2549,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="162" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="154" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="46" t="s">
@@ -2567,10 +2567,10 @@
       <c r="F6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="158" t="s">
+      <c r="G6" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="154" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="46" t="s">
@@ -2582,7 +2582,7 @@
       <c r="K6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="158" t="s">
+      <c r="L6" s="154" t="s">
         <v>121</v>
       </c>
       <c r="M6" s="146" t="s">
@@ -2592,16 +2592,16 @@
       <c r="P6" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="164" t="s">
+      <c r="Q6" s="158" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="167"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="45" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2611,8 @@
       <c r="F7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="46" t="s">
         <v>35</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="K7" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="158"/>
+      <c r="L7" s="154"/>
       <c r="M7" s="146" t="s">
         <v>44</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="P7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="165"/>
+      <c r="Q7" s="159"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
@@ -2681,13 +2681,13 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="162" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="154" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="150" t="s">
@@ -2699,10 +2699,10 @@
       <c r="F9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="158" t="s">
+      <c r="G9" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="154" t="s">
         <v>121</v>
       </c>
       <c r="I9" s="48" t="s">
@@ -2714,7 +2714,7 @@
       <c r="K9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="158" t="s">
+      <c r="L9" s="154" t="s">
         <v>121</v>
       </c>
       <c r="M9" s="152" t="s">
@@ -2729,11 +2729,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="155"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="158"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="149" t="s">
         <v>131</v>
       </c>
@@ -2743,8 +2743,8 @@
       <c r="F10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="2" t="s">
         <v>131</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="K10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="158"/>
+      <c r="L10" s="154"/>
       <c r="M10" s="149" t="s">
         <v>131</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="P11" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="156" t="s">
+      <c r="Q11" s="160" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       <c r="P12" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="Q12" s="157"/>
+      <c r="Q12" s="161"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
@@ -2909,43 +2909,43 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="159" t="s">
+      <c r="D14" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="159" t="s">
+      <c r="E14" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="154" t="s">
         <v>121</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="159" t="s">
+      <c r="H14" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="159" t="s">
+      <c r="J14" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="M14" s="159" t="s">
+      <c r="K14" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="155" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="115"/>
@@ -2957,23 +2957,23 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="155"/>
-      <c r="B15" s="159"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="158"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="158"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="159"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="155"/>
       <c r="N15" s="115"/>
       <c r="P15" s="61" t="s">
         <v>2</v>
@@ -3271,43 +3271,43 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="163" t="s">
+      <c r="C22" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="163" t="s">
+      <c r="E22" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="158" t="s">
+      <c r="F22" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="154" t="s">
         <v>121</v>
       </c>
       <c r="H22" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="163" t="s">
+      <c r="I22" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="158" t="s">
+      <c r="K22" s="154" t="s">
         <v>121</v>
       </c>
       <c r="L22" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="M22" s="158" t="s">
+      <c r="M22" s="154" t="s">
         <v>121</v>
       </c>
       <c r="N22" s="115"/>
@@ -3319,23 +3319,23 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="155"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
       <c r="H23" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="158"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="158"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="154"/>
       <c r="L23" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="158"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="115"/>
       <c r="P23" s="59" t="s">
         <v>5</v>
@@ -3681,7 +3681,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="162" t="s">
         <v>127</v>
       </c>
       <c r="B31" s="153" t="s">
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="155"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="153" t="s">
         <v>133</v>
       </c>
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="165" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="46" t="s">
@@ -3992,16 +3992,16 @@
       <c r="C38" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="158" t="s">
+      <c r="D38" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="154" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="158" t="s">
+      <c r="G38" s="154" t="s">
         <v>121</v>
       </c>
       <c r="H38" s="62" t="s">
@@ -4013,10 +4013,10 @@
       <c r="J38" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="K38" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="L38" s="158" t="s">
+      <c r="K38" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="154" t="s">
         <v>121</v>
       </c>
       <c r="M38" s="62" t="s">
@@ -4034,19 +4034,19 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="162"/>
+      <c r="A39" s="166"/>
       <c r="B39" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
       <c r="F39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="158"/>
+      <c r="G39" s="154"/>
       <c r="H39" s="62" t="s">
         <v>44</v>
       </c>
@@ -4056,8 +4056,8 @@
       <c r="J39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="154"/>
       <c r="M39" s="62" t="s">
         <v>44</v>
       </c>
@@ -4124,7 +4124,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="162" t="s">
         <v>126</v>
       </c>
       <c r="B41" s="150" t="s">
@@ -4133,16 +4133,16 @@
       <c r="C41" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="158" t="s">
+      <c r="D41" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="154" t="s">
         <v>121</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="158" t="s">
+      <c r="G41" s="154" t="s">
         <v>121</v>
       </c>
       <c r="H41" s="150" t="s">
@@ -4154,10 +4154,10 @@
       <c r="J41" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="L41" s="158" t="s">
+      <c r="K41" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" s="154" t="s">
         <v>121</v>
       </c>
       <c r="M41" s="52" t="s">
@@ -4175,19 +4175,19 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="155"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="149" t="s">
         <v>131</v>
       </c>
       <c r="C42" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
       <c r="F42" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="158"/>
+      <c r="G42" s="154"/>
       <c r="H42" s="149" t="s">
         <v>131</v>
       </c>
@@ -4197,8 +4197,8 @@
       <c r="J42" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154"/>
       <c r="M42" s="67" t="s">
         <v>131</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="P44" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="Q44" s="156" t="s">
+      <c r="Q44" s="160" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4362,49 +4362,49 @@
       <c r="P45" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="Q45" s="157"/>
+      <c r="Q45" s="161"/>
     </row>
     <row r="46" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="154" t="s">
+      <c r="A46" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="160" t="s">
+      <c r="C46" s="157" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="159" t="s">
+      <c r="E46" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="163" t="s">
+      <c r="G46" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="163" t="s">
+      <c r="I46" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="163" t="s">
+      <c r="J46" s="156" t="s">
         <v>9</v>
       </c>
       <c r="K46" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="L46" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="M46" s="163" t="s">
+      <c r="L46" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="159" t="s">
+      <c r="N46" s="155" t="s">
         <v>7</v>
       </c>
       <c r="O46" s="129"/>
@@ -4416,24 +4416,24 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="155"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="160"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="157"/>
       <c r="D47" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="158"/>
-      <c r="F47" s="159"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="156"/>
       <c r="K47" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="158"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="159"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="156"/>
+      <c r="N47" s="155"/>
       <c r="O47" s="129"/>
       <c r="P47" s="61" t="s">
         <v>91</v>
@@ -4745,46 +4745,46 @@
       <c r="S53" s="38"/>
     </row>
     <row r="54" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="154" t="s">
+      <c r="A54" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="158" t="s">
+      <c r="C54" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="154" t="s">
         <v>121</v>
       </c>
       <c r="E54" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="163" t="s">
+      <c r="F54" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="I54" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" s="163" t="s">
+      <c r="I54" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="K54" s="158" t="s">
+      <c r="K54" s="154" t="s">
         <v>121</v>
       </c>
       <c r="L54" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="M54" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="N54" s="163" t="s">
+      <c r="M54" s="157" t="s">
+        <v>121</v>
+      </c>
+      <c r="N54" s="156" t="s">
         <v>35</v>
       </c>
       <c r="O54" s="126"/>
@@ -4792,24 +4792,24 @@
       <c r="Q54" s="38"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="155"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="158"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="154"/>
       <c r="E55" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="160"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="163"/>
-      <c r="K55" s="158"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="154"/>
       <c r="L55" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="M55" s="160"/>
-      <c r="N55" s="163"/>
+      <c r="M55" s="157"/>
+      <c r="N55" s="156"/>
       <c r="O55" s="126"/>
       <c r="P55" s="120"/>
       <c r="Q55" s="38"/>
@@ -5062,46 +5062,46 @@
       <c r="S60" s="38"/>
     </row>
     <row r="61" spans="1:19" s="137" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="154" t="s">
+      <c r="A61" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="159" t="s">
+      <c r="B61" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="159" t="s">
+      <c r="C61" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="159" t="s">
+      <c r="D61" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="159" t="s">
+      <c r="E61" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="159" t="s">
+      <c r="F61" s="155" t="s">
         <v>52</v>
       </c>
       <c r="G61" s="139" t="s">
         <v>306</v>
       </c>
-      <c r="H61" s="159" t="s">
+      <c r="H61" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="159" t="s">
+      <c r="I61" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="J61" s="159" t="s">
+      <c r="J61" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="K61" s="159" t="s">
+      <c r="K61" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="L61" s="159" t="s">
+      <c r="L61" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="M61" s="159" t="s">
+      <c r="M61" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="N61" s="159" t="s">
+      <c r="N61" s="155" t="s">
         <v>52</v>
       </c>
       <c r="O61" s="138"/>
@@ -5109,22 +5109,22 @@
       <c r="Q61" s="38"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="155"/>
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
       <c r="G62" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="159"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="159"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
       <c r="O62" s="133"/>
       <c r="P62" s="120"/>
       <c r="Q62" s="38"/>
@@ -5181,7 +5181,7 @@
       <c r="S63" s="38"/>
     </row>
     <row r="64" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="154" t="s">
+      <c r="A64" s="162" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="153" t="s">
@@ -5228,7 +5228,7 @@
       <c r="Q64" s="38"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="155"/>
+      <c r="A65" s="163"/>
       <c r="B65" s="153" t="s">
         <v>133</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="Q70" s="55"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="161" t="s">
+      <c r="A71" s="165" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="62" t="s">
@@ -5454,10 +5454,10 @@
       <c r="C71" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="158" t="s">
+      <c r="D71" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="154" t="s">
         <v>121</v>
       </c>
       <c r="F71" s="62" t="s">
@@ -5477,15 +5477,15 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="162"/>
+      <c r="A72" s="166"/>
       <c r="B72" s="62" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="158"/>
-      <c r="E72" s="158"/>
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
       <c r="F72" s="62" t="s">
         <v>44</v>
       </c>
@@ -5535,7 +5535,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" s="151" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="154" t="s">
+      <c r="A74" s="162" t="s">
         <v>126</v>
       </c>
       <c r="B74" s="150" t="s">
@@ -5544,10 +5544,10 @@
       <c r="C74" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="158" t="s">
+      <c r="D74" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="154" t="s">
         <v>121</v>
       </c>
       <c r="F74" s="150" t="s">
@@ -5567,15 +5567,15 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="155"/>
+      <c r="A75" s="163"/>
       <c r="B75" s="153" t="s">
         <v>131</v>
       </c>
       <c r="C75" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="158"/>
-      <c r="E75" s="158"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="154"/>
       <c r="F75" s="153" t="s">
         <v>131</v>
       </c>
@@ -5689,34 +5689,34 @@
       </c>
     </row>
     <row r="79" spans="1:19" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="154" t="s">
+      <c r="A79" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="159" t="s">
+      <c r="B79" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="158" t="s">
+      <c r="C79" s="154" t="s">
         <v>121</v>
       </c>
       <c r="D79" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E79" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="159" t="s">
+      <c r="E79" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="159" t="s">
+      <c r="G79" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="166" t="s">
+      <c r="H79" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="159" t="s">
+      <c r="I79" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="J79" s="158" t="s">
+      <c r="J79" s="154" t="s">
         <v>121</v>
       </c>
       <c r="M79" s="115"/>
@@ -5725,18 +5725,18 @@
       <c r="Q79"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="155"/>
-      <c r="B80" s="159"/>
-      <c r="C80" s="158"/>
+      <c r="A80" s="163"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="154"/>
       <c r="D80" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="158"/>
-      <c r="F80" s="159"/>
-      <c r="G80" s="159"/>
-      <c r="H80" s="166"/>
-      <c r="I80" s="159"/>
-      <c r="J80" s="158"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="155"/>
+      <c r="G80" s="155"/>
+      <c r="H80" s="171"/>
+      <c r="I80" s="155"/>
+      <c r="J80" s="154"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="56" t="s">
@@ -5933,34 +5933,34 @@
       </c>
     </row>
     <row r="87" spans="1:17" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="154" t="s">
+      <c r="A87" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="163" t="s">
+      <c r="B87" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="158" t="s">
+      <c r="C87" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="154" t="s">
         <v>121</v>
       </c>
       <c r="E87" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="F87" s="163" t="s">
+      <c r="F87" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="G87" s="163" t="s">
+      <c r="G87" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="H87" s="163" t="s">
+      <c r="H87" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="I87" s="158" t="s">
-        <v>121</v>
-      </c>
-      <c r="J87" s="158" t="s">
+      <c r="I87" s="154" t="s">
+        <v>121</v>
+      </c>
+      <c r="J87" s="154" t="s">
         <v>121</v>
       </c>
       <c r="M87" s="115"/>
@@ -5969,18 +5969,18 @@
       <c r="Q87"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="155"/>
-      <c r="B88" s="163"/>
-      <c r="C88" s="158"/>
-      <c r="D88" s="158"/>
+      <c r="A88" s="163"/>
+      <c r="B88" s="156"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="154"/>
       <c r="E88" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="163"/>
-      <c r="G88" s="163"/>
-      <c r="H88" s="163"/>
-      <c r="I88" s="158"/>
-      <c r="J88" s="158"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="156"/>
+      <c r="I88" s="154"/>
+      <c r="J88" s="154"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="56" t="s">
@@ -6209,7 +6209,7 @@
       </c>
     </row>
     <row r="96" spans="1:17" s="151" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="154" t="s">
+      <c r="A96" s="162" t="s">
         <v>127</v>
       </c>
       <c r="B96" s="153" t="s">
@@ -6241,7 +6241,7 @@
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A97" s="155"/>
+      <c r="A97" s="163"/>
       <c r="B97" s="153" t="s">
         <v>133</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="Q103" s="74"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A104" s="191" t="s">
+      <c r="A104" s="167" t="s">
         <v>54</v>
       </c>
       <c r="B104" s="84" t="s">
@@ -6443,7 +6443,7 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A105" s="192"/>
+      <c r="A105" s="168"/>
       <c r="B105" s="84" t="s">
         <v>212</v>
       </c>
@@ -6476,7 +6476,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A106" s="189" t="s">
+      <c r="A106" s="169" t="s">
         <v>55</v>
       </c>
       <c r="B106" s="84" t="s">
@@ -6511,7 +6511,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A107" s="190"/>
+      <c r="A107" s="170"/>
       <c r="B107" s="84" t="s">
         <v>35</v>
       </c>
@@ -7350,6 +7350,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J87:J88"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="M14:M15"/>
@@ -7374,95 +7463,6 @@
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="C46:C47"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7591,19 +7591,19 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="174" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="171" t="s">
+      <c r="D5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="176" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -7621,7 +7621,7 @@
       <c r="J5" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="171" t="s">
+      <c r="K5" s="176" t="s">
         <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -7648,30 +7648,30 @@
       <c r="S5" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="172" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="187" t="s">
+      <c r="T5" s="190" t="s">
+        <v>121</v>
+      </c>
+      <c r="U5" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="V5" s="187" t="s">
+      <c r="V5" s="191" t="s">
         <v>145</v>
       </c>
       <c r="W5" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="X5" s="168" t="s">
+      <c r="X5" s="186" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="170"/>
+      <c r="A6" s="175"/>
       <c r="B6" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
       <c r="F6" s="101" t="s">
         <v>140</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="J6" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="173"/>
+      <c r="K6" s="189"/>
       <c r="L6" s="101" t="s">
         <v>140</v>
       </c>
@@ -7712,22 +7712,22 @@
       <c r="S6" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="T6" s="173"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="177"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
       <c r="W6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="X6" s="195"/>
+      <c r="X6" s="187"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="178" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -7736,49 +7736,49 @@
       <c r="E7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="179" t="s">
+      <c r="G7" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="179" t="s">
+      <c r="H7" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="179" t="s">
+      <c r="I7" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="179" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="179" t="s">
+      <c r="L7" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="180" t="s">
+      <c r="M7" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="180" t="s">
+      <c r="N7" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="180" t="s">
+      <c r="O7" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="180" t="s">
+      <c r="P7" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="177" t="s">
+      <c r="Q7" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="178" t="s">
+      <c r="R7" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="178" t="s">
+      <c r="S7" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="173" t="s">
+      <c r="T7" s="189" t="s">
         <v>121</v>
       </c>
       <c r="U7" s="16" t="s">
@@ -7787,48 +7787,48 @@
       <c r="V7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="173" t="s">
+      <c r="W7" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="X7" s="196" t="s">
+      <c r="X7" s="188" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="176"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
       <c r="D8" s="106" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="180"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="179"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="173"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="189"/>
       <c r="U8" s="99" t="s">
         <v>0</v>
       </c>
       <c r="V8" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="W8" s="173"/>
-      <c r="X8" s="195"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="187"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
@@ -7905,106 +7905,106 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="179" t="s">
+      <c r="C10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="179" t="s">
+      <c r="F10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="179" t="s">
+      <c r="G10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="179" t="s">
+      <c r="H10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="179" t="s">
+      <c r="I10" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="177" t="s">
+      <c r="J10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="177" t="s">
+      <c r="K10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="177" t="s">
+      <c r="L10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="177" t="s">
+      <c r="M10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="177" t="s">
+      <c r="N10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="194" t="s">
+      <c r="O10" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="177" t="s">
+      <c r="P10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="177" t="s">
+      <c r="Q10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="178" t="s">
+      <c r="R10" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="180" t="s">
+      <c r="S10" s="179" t="s">
         <v>83</v>
       </c>
       <c r="T10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="177" t="s">
+      <c r="U10" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="177" t="s">
+      <c r="V10" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="W10" s="173" t="s">
+      <c r="W10" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="196" t="s">
+      <c r="X10" s="188" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="198"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="177"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="180"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="179"/>
       <c r="T11" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="U11" s="177"/>
-      <c r="V11" s="177"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="195"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="187"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
@@ -8020,206 +8020,206 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
-      <c r="B13" s="182" t="s">
+      <c r="B13" s="173" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182" t="s">
+      <c r="C13" s="173"/>
+      <c r="D13" s="173" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182" t="s">
+      <c r="E13" s="173"/>
+      <c r="F13" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182" t="s">
+      <c r="G13" s="173"/>
+      <c r="H13" s="173" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="182"/>
+      <c r="I13" s="173"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184" t="s">
+      <c r="C14" s="195"/>
+      <c r="D14" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184" t="s">
+      <c r="E14" s="195"/>
+      <c r="F14" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184" t="s">
+      <c r="G14" s="195"/>
+      <c r="H14" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="184"/>
-      <c r="J14" s="185" t="s">
+      <c r="I14" s="195"/>
+      <c r="J14" s="177" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="183"/>
-      <c r="B15" s="171" t="s">
+      <c r="A15" s="194"/>
+      <c r="B15" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171" t="s">
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="185"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="176" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="186" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="196" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="186"/>
-      <c r="F16" s="179" t="s">
+      <c r="E16" s="196"/>
+      <c r="F16" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="179"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="185"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="194" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="171" t="s">
+      <c r="C17" s="178"/>
+      <c r="D17" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171" t="s">
+      <c r="E17" s="176"/>
+      <c r="F17" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171" t="s">
+      <c r="G17" s="176"/>
+      <c r="H17" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="I17" s="171"/>
+      <c r="I17" s="176"/>
       <c r="J17" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="183"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171" t="s">
+      <c r="A18" s="194"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171" t="s">
+      <c r="G18" s="176"/>
+      <c r="H18" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="171"/>
+      <c r="I18" s="176"/>
       <c r="J18" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="194" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171" t="s">
+      <c r="C19" s="176"/>
+      <c r="D19" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171" t="s">
+      <c r="E19" s="176"/>
+      <c r="F19" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171" t="s">
+      <c r="G19" s="176"/>
+      <c r="H19" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="I19" s="171"/>
+      <c r="I19" s="176"/>
       <c r="J19" s="19" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="183"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171" t="s">
+      <c r="A20" s="194"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171" t="s">
+      <c r="G20" s="176"/>
+      <c r="H20" s="176" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="171"/>
+      <c r="I20" s="176"/>
       <c r="J20" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171" t="s">
+      <c r="C21" s="176"/>
+      <c r="D21" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171" t="s">
+      <c r="E21" s="176"/>
+      <c r="F21" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171" t="s">
+      <c r="G21" s="176"/>
+      <c r="H21" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="171"/>
+      <c r="I21" s="176"/>
       <c r="J21" s="108" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="183"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171" t="s">
+      <c r="A22" s="194"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171" t="s">
+      <c r="G22" s="176"/>
+      <c r="H22" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="171"/>
+      <c r="I22" s="176"/>
       <c r="J22" s="108" t="s">
         <v>167</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="174" t="s">
         <v>168</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -8297,7 +8297,7 @@
       <c r="J27" s="112"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="170"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="101" t="s">
         <v>40</v>
       </c>
@@ -8418,7 +8418,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="174" t="s">
         <v>174</v>
       </c>
       <c r="B34" s="110" t="s">
@@ -8459,7 +8459,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A35" s="170"/>
+      <c r="A35" s="175"/>
       <c r="B35" s="105" t="s">
         <v>82</v>
       </c>
@@ -8555,303 +8555,303 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
-      <c r="B38" s="182" t="s">
+      <c r="B38" s="173" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182" t="s">
+      <c r="C38" s="173"/>
+      <c r="D38" s="173" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182" t="s">
+      <c r="E38" s="173"/>
+      <c r="F38" s="173" t="s">
         <v>287</v>
       </c>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182" t="s">
+      <c r="G38" s="173"/>
+      <c r="H38" s="173" t="s">
         <v>288</v>
       </c>
-      <c r="I38" s="182"/>
-      <c r="J38" s="182" t="s">
+      <c r="I38" s="173"/>
+      <c r="J38" s="173" t="s">
         <v>285</v>
       </c>
-      <c r="K38" s="182"/>
-      <c r="L38" s="182" t="s">
+      <c r="K38" s="173"/>
+      <c r="L38" s="173" t="s">
         <v>284</v>
       </c>
-      <c r="M38" s="182"/>
-      <c r="N38" s="182" t="s">
+      <c r="M38" s="173"/>
+      <c r="N38" s="173" t="s">
         <v>289</v>
       </c>
-      <c r="O38" s="182"/>
-      <c r="P38" s="182" t="s">
+      <c r="O38" s="173"/>
+      <c r="P38" s="173" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="182"/>
-      <c r="R38" s="182" t="s">
+      <c r="Q38" s="173"/>
+      <c r="R38" s="173" t="s">
         <v>291</v>
       </c>
-      <c r="S38" s="182"/>
+      <c r="S38" s="173"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="194" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184" t="s">
+      <c r="C39" s="195"/>
+      <c r="D39" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184" t="s">
+      <c r="E39" s="195"/>
+      <c r="F39" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184" t="s">
+      <c r="G39" s="195"/>
+      <c r="H39" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="184"/>
-      <c r="J39" s="184" t="s">
+      <c r="I39" s="195"/>
+      <c r="J39" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="K39" s="184"/>
-      <c r="L39" s="184" t="s">
+      <c r="K39" s="195"/>
+      <c r="L39" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="M39" s="184"/>
-      <c r="N39" s="184" t="s">
+      <c r="M39" s="195"/>
+      <c r="N39" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="O39" s="184"/>
-      <c r="P39" s="184" t="s">
+      <c r="O39" s="195"/>
+      <c r="P39" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="Q39" s="184"/>
-      <c r="R39" s="184" t="s">
+      <c r="Q39" s="195"/>
+      <c r="R39" s="195" t="s">
         <v>176</v>
       </c>
-      <c r="S39" s="184"/>
-      <c r="T39" s="185" t="s">
+      <c r="S39" s="195"/>
+      <c r="T39" s="177" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A40" s="183"/>
-      <c r="B40" s="171" t="s">
+      <c r="A40" s="194"/>
+      <c r="B40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171" t="s">
+      <c r="C40" s="176"/>
+      <c r="D40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171" t="s">
+      <c r="E40" s="176"/>
+      <c r="F40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171" t="s">
+      <c r="G40" s="176"/>
+      <c r="H40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171" t="s">
+      <c r="I40" s="176"/>
+      <c r="J40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171" t="s">
+      <c r="K40" s="176"/>
+      <c r="L40" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171" t="s">
+      <c r="M40" s="176"/>
+      <c r="N40" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="O40" s="171"/>
-      <c r="P40" s="171" t="s">
+      <c r="O40" s="176"/>
+      <c r="P40" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="Q40" s="171"/>
-      <c r="R40" s="171" t="s">
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="S40" s="171"/>
-      <c r="T40" s="185"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="177"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171" t="s">
+      <c r="C41" s="176"/>
+      <c r="D41" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171" t="s">
+      <c r="E41" s="176"/>
+      <c r="F41" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171" t="s">
+      <c r="G41" s="176"/>
+      <c r="H41" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171" t="s">
+      <c r="I41" s="176"/>
+      <c r="J41" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171" t="s">
+      <c r="K41" s="176"/>
+      <c r="L41" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171" t="s">
+      <c r="M41" s="176"/>
+      <c r="N41" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171" t="s">
+      <c r="O41" s="176"/>
+      <c r="P41" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="171" t="s">
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176" t="s">
         <v>202</v>
       </c>
-      <c r="S41" s="171"/>
-      <c r="T41" s="181" t="s">
+      <c r="S41" s="176"/>
+      <c r="T41" s="184" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A42" s="176"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="171"/>
-      <c r="P42" s="171" t="s">
+      <c r="A42" s="183"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="176"/>
+      <c r="L42" s="176"/>
+      <c r="M42" s="176"/>
+      <c r="N42" s="176"/>
+      <c r="O42" s="176"/>
+      <c r="P42" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="Q42" s="171"/>
-      <c r="R42" s="171"/>
-      <c r="S42" s="171"/>
-      <c r="T42" s="174"/>
+      <c r="Q42" s="176"/>
+      <c r="R42" s="176"/>
+      <c r="S42" s="176"/>
+      <c r="T42" s="185"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="182" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179" t="s">
+      <c r="C43" s="178"/>
+      <c r="D43" s="178" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="179"/>
-      <c r="F43" s="179" t="s">
+      <c r="E43" s="178"/>
+      <c r="F43" s="178" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="179"/>
-      <c r="H43" s="179" t="s">
+      <c r="G43" s="178"/>
+      <c r="H43" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="I43" s="179"/>
-      <c r="J43" s="179" t="s">
+      <c r="I43" s="178"/>
+      <c r="J43" s="178" t="s">
         <v>198</v>
       </c>
-      <c r="K43" s="179"/>
-      <c r="L43" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="171"/>
-      <c r="N43" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="O43" s="193"/>
-      <c r="P43" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q43" s="193"/>
-      <c r="R43" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="S43" s="193"/>
-      <c r="T43" s="181" t="s">
+      <c r="K43" s="178"/>
+      <c r="L43" s="176" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43" s="176"/>
+      <c r="N43" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="O43" s="197"/>
+      <c r="P43" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q43" s="197"/>
+      <c r="R43" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="S43" s="197"/>
+      <c r="T43" s="184" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A44" s="176"/>
-      <c r="B44" s="171" t="s">
+      <c r="A44" s="183"/>
+      <c r="B44" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="171"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="179"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="193"/>
-      <c r="O44" s="193"/>
-      <c r="P44" s="193"/>
-      <c r="Q44" s="193"/>
-      <c r="R44" s="193"/>
-      <c r="S44" s="193"/>
-      <c r="T44" s="174"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="178"/>
+      <c r="K44" s="178"/>
+      <c r="L44" s="176"/>
+      <c r="M44" s="176"/>
+      <c r="N44" s="197"/>
+      <c r="O44" s="197"/>
+      <c r="P44" s="197"/>
+      <c r="Q44" s="197"/>
+      <c r="R44" s="197"/>
+      <c r="S44" s="197"/>
+      <c r="T44" s="185"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="171"/>
-      <c r="D45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="193"/>
-      <c r="L45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="M45" s="193"/>
-      <c r="N45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="O45" s="193"/>
-      <c r="P45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="193"/>
-      <c r="R45" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="S45" s="193"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="197"/>
+      <c r="F45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="197"/>
+      <c r="H45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="197"/>
+      <c r="J45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="197"/>
+      <c r="L45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" s="197"/>
+      <c r="N45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="O45" s="197"/>
+      <c r="P45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="197"/>
+      <c r="R45" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="S45" s="197"/>
       <c r="T45" s="114" t="s">
         <v>190</v>
       </c>
@@ -8860,42 +8860,42 @@
       <c r="A46" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="188" t="s">
+      <c r="B46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="188"/>
-      <c r="D46" s="188" t="s">
+      <c r="C46" s="198"/>
+      <c r="D46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="188"/>
-      <c r="F46" s="188" t="s">
+      <c r="E46" s="198"/>
+      <c r="F46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188" t="s">
+      <c r="G46" s="198"/>
+      <c r="H46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="I46" s="188"/>
-      <c r="J46" s="188" t="s">
+      <c r="I46" s="198"/>
+      <c r="J46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="K46" s="188"/>
-      <c r="L46" s="188" t="s">
+      <c r="K46" s="198"/>
+      <c r="L46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="M46" s="188"/>
-      <c r="N46" s="188" t="s">
+      <c r="M46" s="198"/>
+      <c r="N46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="O46" s="188"/>
-      <c r="P46" s="188" t="s">
+      <c r="O46" s="198"/>
+      <c r="P46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="Q46" s="188"/>
-      <c r="R46" s="188" t="s">
+      <c r="Q46" s="198"/>
+      <c r="R46" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="S46" s="188"/>
+      <c r="S46" s="198"/>
       <c r="T46" s="114" t="s">
         <v>170</v>
       </c>
@@ -8904,42 +8904,42 @@
       <c r="A47" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="188" t="s">
+      <c r="B47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="188"/>
-      <c r="D47" s="188" t="s">
+      <c r="C47" s="198"/>
+      <c r="D47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188" t="s">
+      <c r="E47" s="198"/>
+      <c r="F47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="G47" s="188"/>
-      <c r="H47" s="188" t="s">
+      <c r="G47" s="198"/>
+      <c r="H47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="188"/>
-      <c r="J47" s="188" t="s">
+      <c r="I47" s="198"/>
+      <c r="J47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="K47" s="188"/>
-      <c r="L47" s="188" t="s">
+      <c r="K47" s="198"/>
+      <c r="L47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="M47" s="188"/>
-      <c r="N47" s="188" t="s">
+      <c r="M47" s="198"/>
+      <c r="N47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="O47" s="188"/>
-      <c r="P47" s="188" t="s">
+      <c r="O47" s="198"/>
+      <c r="P47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="Q47" s="188"/>
-      <c r="R47" s="188" t="s">
+      <c r="Q47" s="198"/>
+      <c r="R47" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="S47" s="188"/>
+      <c r="S47" s="198"/>
       <c r="T47" s="114" t="s">
         <v>171</v>
       </c>
@@ -8948,42 +8948,42 @@
       <c r="A48" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="188" t="s">
+      <c r="B48" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="C48" s="188"/>
-      <c r="D48" s="188" t="s">
+      <c r="C48" s="198"/>
+      <c r="D48" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="188"/>
-      <c r="F48" s="188" t="s">
+      <c r="E48" s="198"/>
+      <c r="F48" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="G48" s="188"/>
-      <c r="H48" s="188" t="s">
+      <c r="G48" s="198"/>
+      <c r="H48" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="I48" s="188"/>
-      <c r="J48" s="188" t="s">
+      <c r="I48" s="198"/>
+      <c r="J48" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="K48" s="188"/>
-      <c r="L48" s="188" t="s">
+      <c r="K48" s="198"/>
+      <c r="L48" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="M48" s="188"/>
-      <c r="N48" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="O48" s="193"/>
-      <c r="P48" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q48" s="193"/>
-      <c r="R48" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="S48" s="193"/>
+      <c r="M48" s="198"/>
+      <c r="N48" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="O48" s="197"/>
+      <c r="P48" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" s="197"/>
+      <c r="R48" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="S48" s="197"/>
       <c r="T48" s="114" t="s">
         <v>191</v>
       </c>
@@ -8992,42 +8992,42 @@
       <c r="A49" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="188" t="s">
+      <c r="B49" s="198" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="188"/>
-      <c r="D49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="I49" s="193"/>
-      <c r="J49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="K49" s="193"/>
-      <c r="L49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="O49" s="193"/>
-      <c r="P49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="S49" s="193"/>
+      <c r="C49" s="198"/>
+      <c r="D49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="197"/>
+      <c r="F49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="197"/>
+      <c r="H49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" s="197"/>
+      <c r="J49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" s="197"/>
+      <c r="L49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="M49" s="197"/>
+      <c r="N49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="O49" s="197"/>
+      <c r="P49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q49" s="197"/>
+      <c r="R49" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="S49" s="197"/>
       <c r="T49" s="114" t="s">
         <v>193</v>
       </c>
@@ -9046,6 +9046,169 @@
     </row>
   </sheetData>
   <mergeCells count="187">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R41:S42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="N43:O44"/>
+    <mergeCell ref="P43:Q44"/>
+    <mergeCell ref="R43:S44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="N41:O42"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P38:Q38"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
@@ -9070,169 +9233,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="N43:O44"/>
-    <mergeCell ref="P43:Q44"/>
-    <mergeCell ref="R43:S44"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="N41:O42"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
